--- a/AportalRefactor/src/main/java/Utilities/Items.xlsx
+++ b/AportalRefactor/src/main/java/Utilities/Items.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Item Name</t>
   </si>
@@ -88,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -128,6 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -143,29 +152,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +205,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -195,61 +228,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,25 +287,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,19 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,115 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +496,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,15 +531,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,21 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -594,82 +596,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -678,64 +680,64 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1143,4 +1145,135 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="50.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="48.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="59.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="80.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>650</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="71.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="96.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="91.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="72.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="69.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>550</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>650</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>